--- a/datasets/main_pages_df.xlsx
+++ b/datasets/main_pages_df.xlsx
@@ -1251,27 +1251,27 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Default</t>
+          <t>Tale</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>28</v>
+        <v>744</v>
       </c>
       <c r="D33" t="n">
-        <v>316</v>
+        <v>4631</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5316455696202531</v>
+        <v>0.9529259339235586</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>5.931451612903226</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>45485.9921412037</v>
+        <v>45801.52984953704</v>
       </c>
     </row>
     <row r="34">
@@ -1459,19 +1459,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>157268</v>
+        <v>165216</v>
       </c>
       <c r="D41" t="n">
-        <v>1008504</v>
+        <v>1058861</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9757135321228276</v>
+        <v>0.976415223527923</v>
       </c>
       <c r="F41" t="n">
-        <v>6.256905409873592</v>
+        <v>6.257795855122991</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>45793.91333333333</v>
+        <v>45801.56623842593</v>
       </c>
     </row>
     <row r="42">
@@ -1880,23 +1880,23 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Subcategory</t>
+          <t>Tale</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>2244</v>
       </c>
       <c r="D58" t="n">
-        <v>13959</v>
+        <v>13886</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9835231750125368</v>
+        <v>0.988693648278842</v>
       </c>
       <c r="F58" t="n">
         <v>6.118092691622104</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>45522.73387731481</v>
+        <v>45801.53</v>
       </c>
     </row>
     <row r="59">
